--- a/DRU测试问题记录.xlsx
+++ b/DRU测试问题记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,19 @@
   </si>
   <si>
     <t>文件中记录个别重复，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关机测试，收发数据是否有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个别文件中，数据存在丢失和排列不整齐的问题；
+问题定位，可能是数据板与FPGA之间接口的读取速率不够；处理板文件排序和筛选程序，把正确数据剔除。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,17 +546,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -672,12 +685,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+    <row r="9" spans="1:5" ht="73.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="38.25" customHeight="1">
       <c r="A10" s="1"/>
